--- a/Coolicode_V1/IO-listaus.xlsx
+++ b/Coolicode_V1/IO-listaus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMISTAJA\Documents\OAMK 2024\Cooliblade\Coolicode_V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tannn\Documents\Koulu\cooliblade_code\Coolicode_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EB4047-C966-437D-99A0-5319BB0DECDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAB1979-9005-4884-8853-4EA263EE5D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD481785-4D48-4B64-89A7-A775492278BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{AD481785-4D48-4B64-89A7-A775492278BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>IO-listaus</t>
   </si>
   <si>
-    <t>rdy_btn</t>
-  </si>
-  <si>
-    <t>jog_fw</t>
-  </si>
-  <si>
-    <t>jog_bw</t>
-  </si>
-  <si>
-    <t>stop_btn</t>
-  </si>
-  <si>
-    <t>rdy_led</t>
-  </si>
-  <si>
-    <t>error_led</t>
-  </si>
-  <si>
-    <t>step_enable_A_pin</t>
-  </si>
-  <si>
-    <t>step_enable_B_pin</t>
-  </si>
-  <si>
-    <t>step_enable_C_pin</t>
-  </si>
-  <si>
     <t>Koodinimi</t>
   </si>
   <si>
-    <t>funktio</t>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Pulssi</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>JOGFW</t>
+  </si>
+  <si>
+    <t>JOGBW</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Sininen_led</t>
+  </si>
+  <si>
+    <t>Vihreä_led</t>
+  </si>
+  <si>
+    <t>Punainen_led</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Funktio</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Makasiinin rajapinni</t>
+  </si>
+  <si>
+    <t>A-pursottimen ylärajapinni</t>
+  </si>
+  <si>
+    <t>A-pursottimen alarajapinni</t>
+  </si>
+  <si>
+    <t>B-pursottimen ylärajapinni</t>
+  </si>
+  <si>
+    <t>B-pursottimen alarajapinni</t>
+  </si>
+  <si>
+    <t>A-pursottimen suunnanvaihto</t>
   </si>
 </sst>
 </file>
@@ -135,13 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,35 +494,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184E0655-96FD-4EAC-92B9-137EE8EC26C8}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="22.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.86328125" style="2"/>
+    <col min="3" max="3" width="27.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.86328125" style="2"/>
+    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -494,67 +532,67 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -566,73 +604,79 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -642,7 +686,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -652,7 +696,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -662,7 +706,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -672,7 +716,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -682,7 +726,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -692,7 +736,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -702,7 +746,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -712,14 +756,75 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="4">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
